--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -16,1062 +16,1062 @@
     <t>alc02@email.com</t>
   </si>
   <si>
+    <t>Alc_Aguiar</t>
+  </si>
+  <si>
     <t>Alcioneia</t>
   </si>
   <si>
     <t>Leondina de Aguiar</t>
   </si>
   <si>
-    <t>Alc_Aguiar</t>
-  </si>
-  <si>
     <t>8HrB3r&amp;&lt;?8Z6z8fHbi_m</t>
   </si>
   <si>
     <t>ale03@email.com</t>
   </si>
   <si>
+    <t>AleRog_Luz</t>
+  </si>
+  <si>
     <t>Alex</t>
   </si>
   <si>
     <t>Rogerio da Luz</t>
   </si>
   <si>
-    <t>AleRog_Luz</t>
-  </si>
-  <si>
     <t>H2a)C7kXckUCakmE#S)R</t>
   </si>
   <si>
     <t>ale04@email.com</t>
   </si>
   <si>
+    <t>Ale_Luz</t>
+  </si>
+  <si>
     <t>Alexandre</t>
   </si>
   <si>
     <t>da Luz</t>
   </si>
   <si>
-    <t>Ale_Luz</t>
-  </si>
-  <si>
     <t>0(Zo&amp;SMQrSpCiEHvQykH</t>
   </si>
   <si>
     <t>ale05@email.com</t>
   </si>
   <si>
+    <t>Ale_Souza</t>
+  </si>
+  <si>
     <t>de Souza</t>
   </si>
   <si>
-    <t>Ale_Souza</t>
-  </si>
-  <si>
     <t>l6eJezx(lzXoyfrpYU4Z</t>
   </si>
   <si>
     <t>ale06@email.com</t>
   </si>
   <si>
+    <t>AleArm_Santos</t>
+  </si>
+  <si>
     <t>Alexandro</t>
   </si>
   <si>
     <t>Armando dos Santos</t>
   </si>
   <si>
-    <t>AleArm_Santos</t>
-  </si>
-  <si>
     <t>&lt;Vk&lt;h@O4^7svL&gt;2a7O&lt;b</t>
   </si>
   <si>
     <t>alo07@email.com</t>
   </si>
   <si>
+    <t>Alo_Andrade</t>
+  </si>
+  <si>
     <t>Aloísio</t>
   </si>
   <si>
     <t>de Andrade</t>
   </si>
   <si>
-    <t>Alo_Andrade</t>
-  </si>
-  <si>
     <t>05r85p3J6L@K-=N3?M&gt;9</t>
   </si>
   <si>
     <t>ama08@email.com</t>
   </si>
   <si>
+    <t>Ama_Pinheiro</t>
+  </si>
+  <si>
     <t>Amarildo</t>
   </si>
   <si>
     <t>Domingos Pinheiro</t>
   </si>
   <si>
-    <t>Ama_Pinheiro</t>
-  </si>
-  <si>
     <t>^AoPzyn-FxFh)b(#okdn</t>
   </si>
   <si>
     <t>ana09@email.com</t>
   </si>
   <si>
+    <t>Ana_Fermino</t>
+  </si>
+  <si>
     <t>Ana</t>
   </si>
   <si>
     <t>Lucia Fermino</t>
   </si>
   <si>
-    <t>Ana_Fermino</t>
-  </si>
-  <si>
     <t>r^02=icpnh!A-9vU9$DE</t>
   </si>
   <si>
     <t>and10@email.com</t>
   </si>
   <si>
+    <t>And_Masetto</t>
+  </si>
+  <si>
     <t>Anderson</t>
   </si>
   <si>
     <t>Antonio Dias Masetto</t>
   </si>
   <si>
-    <t>And_Masetto</t>
-  </si>
-  <si>
     <t>sZen)%pL*YU&amp;+XPUsn!*</t>
   </si>
   <si>
     <t>and11@email.com</t>
   </si>
   <si>
+    <t>And_Miranda</t>
+  </si>
+  <si>
     <t>Miranda</t>
   </si>
   <si>
-    <t>And_Miranda</t>
-  </si>
-  <si>
     <t>&amp;KrXbGqy2%%rOUmV%8e_</t>
   </si>
   <si>
     <t>and12@email.com</t>
   </si>
   <si>
+    <t>And_Oliveira</t>
+  </si>
+  <si>
     <t>Andre</t>
   </si>
   <si>
     <t>Juliano Vasselai de Oliveira</t>
   </si>
   <si>
-    <t>And_Oliveira</t>
-  </si>
-  <si>
     <t>?e?273PlUhq19n+e&gt;+W&gt;</t>
   </si>
   <si>
     <t>and13@email.com</t>
   </si>
   <si>
+    <t>And_Vieira</t>
+  </si>
+  <si>
     <t>André</t>
   </si>
   <si>
     <t>Luiz de Souza Vieira</t>
   </si>
   <si>
-    <t>And_Vieira</t>
-  </si>
-  <si>
     <t>%&gt;^0@fYcHLet8L%8gi!K</t>
   </si>
   <si>
     <t>and14@email.com</t>
   </si>
   <si>
+    <t>And_Barbosa</t>
+  </si>
+  <si>
     <t>Luiz Galdino Barbosa</t>
   </si>
   <si>
-    <t>And_Barbosa</t>
-  </si>
-  <si>
     <t>5pGHj4oeAYA7B#YYi6nZ</t>
   </si>
   <si>
     <t>and15@email.com</t>
   </si>
   <si>
+    <t>And_Silva</t>
+  </si>
+  <si>
     <t>Andrei</t>
   </si>
   <si>
     <t>da Silva</t>
   </si>
   <si>
-    <t>And_Silva</t>
-  </si>
-  <si>
     <t>exq$E&amp;mO%5o3hL+lKj7^</t>
   </si>
   <si>
     <t>ang16@email.com</t>
   </si>
   <si>
+    <t>Ang_Silva</t>
+  </si>
+  <si>
     <t>Angelo</t>
   </si>
   <si>
-    <t>Ang_Silva</t>
-  </si>
-  <si>
     <t>k*f&lt;Q04Ji&amp;jGvye9wy#^</t>
   </si>
   <si>
     <t>ant17@email.com</t>
   </si>
   <si>
+    <t>Ant_Filho</t>
+  </si>
+  <si>
     <t>Antonio</t>
   </si>
   <si>
     <t>Nunes Filho (aposentado)</t>
   </si>
   <si>
-    <t>Ant_Filho</t>
-  </si>
-  <si>
     <t>mW?)AoH0_#RA4rN4d8)0</t>
   </si>
   <si>
     <t>art18@email.com</t>
   </si>
   <si>
+    <t>Art_Neto</t>
+  </si>
+  <si>
     <t>Arthur</t>
   </si>
   <si>
     <t>Wilbert Neto - BC - Não enviar Guia</t>
   </si>
   <si>
-    <t>Art_Neto</t>
-  </si>
-  <si>
     <t>ozVytFNBI=hEN&gt;&amp;4Q-=v</t>
   </si>
   <si>
     <t>bru19@email.com</t>
   </si>
   <si>
+    <t>Bru_Rocha</t>
+  </si>
+  <si>
     <t>Bruno</t>
   </si>
   <si>
     <t>Rocha - BC</t>
   </si>
   <si>
-    <t>Bru_Rocha</t>
-  </si>
-  <si>
     <t>RnWefy1Dw$ouQnFHLw)k</t>
   </si>
   <si>
     <t>cla20@email.com</t>
   </si>
   <si>
+    <t>Cla_Machado</t>
+  </si>
+  <si>
     <t>Claudenir</t>
   </si>
   <si>
     <t>Machado</t>
   </si>
   <si>
-    <t>Cla_Machado</t>
-  </si>
-  <si>
     <t>5rcRtMBO504Pz_M</t>
   </si>
   <si>
     <t>cla21@email.com</t>
   </si>
   <si>
+    <t>Cla_Miranda</t>
+  </si>
+  <si>
     <t>Claudia</t>
   </si>
   <si>
     <t>Regina Miranda</t>
   </si>
   <si>
-    <t>Cla_Miranda</t>
-  </si>
-  <si>
     <t>&gt;&amp;mca5vliwNQF1GN?e@R</t>
   </si>
   <si>
     <t>cla22@email.com</t>
   </si>
   <si>
+    <t>Cla_Terra</t>
+  </si>
+  <si>
     <t>Claudio</t>
   </si>
   <si>
     <t>Roberto Menezes Terra</t>
   </si>
   <si>
-    <t>Cla_Terra</t>
-  </si>
-  <si>
     <t>&gt;=JCbj!F+SNY1Mp5AOf5</t>
   </si>
   <si>
     <t>cle23@email.com</t>
   </si>
   <si>
+    <t>Cle_Vieira</t>
+  </si>
+  <si>
     <t>Cleber</t>
   </si>
   <si>
     <t>Adalberto Vieira</t>
   </si>
   <si>
-    <t>Cle_Vieira</t>
-  </si>
-  <si>
     <t>QE?&amp;da=dI7&lt;BZyHMVrdS</t>
   </si>
   <si>
     <t>cri24@email.com</t>
   </si>
   <si>
+    <t>Cri_Vargas</t>
+  </si>
+  <si>
     <t>Cristian</t>
   </si>
   <si>
     <t>de Souza Vargas</t>
   </si>
   <si>
-    <t>Cri_Vargas</t>
-  </si>
-  <si>
     <t>e$yoRx7X-g(bfx+k&gt;G4T</t>
   </si>
   <si>
     <t>cri25@email.com</t>
   </si>
   <si>
+    <t>Cri_Vieira</t>
+  </si>
+  <si>
     <t>Cristiano</t>
   </si>
   <si>
     <t>Nunes Vieira</t>
   </si>
   <si>
-    <t>Cri_Vieira</t>
-  </si>
-  <si>
     <t>NXG_%FKpPb#vXz=8KunM</t>
   </si>
   <si>
     <t>dal26@email.com</t>
   </si>
   <si>
+    <t>Dal_Santos</t>
+  </si>
+  <si>
     <t>Dalmo</t>
   </si>
   <si>
     <t>Dalmi dos Santos</t>
   </si>
   <si>
-    <t>Dal_Santos</t>
-  </si>
-  <si>
     <t>Xe6p=6!qX6ds$9XVzY??</t>
   </si>
   <si>
     <t>dav27@email.com</t>
   </si>
   <si>
+    <t>Dav_Santos</t>
+  </si>
+  <si>
     <t>Davi</t>
   </si>
   <si>
     <t>Tomas dos Santos</t>
   </si>
   <si>
-    <t>Dav_Santos</t>
-  </si>
-  <si>
     <t>!ln^1k&lt;JpFi8k^+qh4(d</t>
   </si>
   <si>
     <t>dei28@email.com</t>
   </si>
   <si>
+    <t>Deiv_Azevedo</t>
+  </si>
+  <si>
     <t>Deivid</t>
   </si>
   <si>
     <t>Alessandro Azevedo</t>
   </si>
   <si>
-    <t>Deiv_Azevedo</t>
-  </si>
-  <si>
     <t>@mrorOfJVjQg9?3)YOT_</t>
   </si>
   <si>
     <t>die29@email.com</t>
   </si>
   <si>
+    <t>Die_Silva</t>
+  </si>
+  <si>
     <t>Diego</t>
   </si>
   <si>
     <t>Gomes da Silva</t>
   </si>
   <si>
-    <t>Die_Silva</t>
-  </si>
-  <si>
     <t>)$G@fHsCxf1?dLxUC_TF</t>
   </si>
   <si>
     <t>dio30@email.com</t>
   </si>
   <si>
+    <t>Dio_Vieira</t>
+  </si>
+  <si>
     <t>Diogo</t>
   </si>
   <si>
     <t>Silvano Vieira</t>
   </si>
   <si>
-    <t>Dio_Vieira</t>
-  </si>
-  <si>
     <t>5R&amp;Hym$3OzegQlrQTN^0</t>
   </si>
   <si>
     <t>eds31@email.com</t>
   </si>
   <si>
+    <t>Eds_Walendorff</t>
+  </si>
+  <si>
     <t>Edson</t>
   </si>
   <si>
     <t>dos Santos Walendorff</t>
   </si>
   <si>
-    <t>Eds_Walendorff</t>
-  </si>
-  <si>
     <t>gn#aBxPm4L+jtLk=zS#</t>
   </si>
   <si>
     <t>eds32@email.com</t>
   </si>
   <si>
+    <t>Eds_Faustino</t>
+  </si>
+  <si>
     <t>Faustino</t>
   </si>
   <si>
-    <t>Eds_Faustino</t>
-  </si>
-  <si>
     <t>SM?Ga2DysCPl=ibm(&gt;Z&lt;</t>
   </si>
   <si>
     <t>eds33@email.com</t>
   </si>
   <si>
+    <t>Eds_Santos</t>
+  </si>
+  <si>
     <t>Santos</t>
   </si>
   <si>
-    <t>Eds_Santos</t>
-  </si>
-  <si>
     <t>432u!Oy+D9kG4CvNK&amp;v0</t>
   </si>
   <si>
     <t>eli34@email.com</t>
   </si>
   <si>
+    <t>Eli_Rampa</t>
+  </si>
+  <si>
     <t>Eliana</t>
   </si>
   <si>
     <t>Rampa</t>
   </si>
   <si>
-    <t>Eli_Rampa</t>
-  </si>
-  <si>
     <t>U?@tO5ch-A1YM-Z_otd6</t>
   </si>
   <si>
     <t>eli35@email.com</t>
   </si>
   <si>
+    <t>Eli_Santana</t>
+  </si>
+  <si>
     <t>Elias</t>
   </si>
   <si>
     <t>Nilton Santana</t>
   </si>
   <si>
-    <t>Eli_Santana</t>
-  </si>
-  <si>
     <t>rrcYrC_Tyu!%A5X5yl$2</t>
   </si>
   <si>
     <t>eli36@email.com</t>
   </si>
   <si>
+    <t>Eli_Souza</t>
+  </si>
+  <si>
     <t>Renato Miranda de Souza</t>
   </si>
   <si>
-    <t>Eli_Souza</t>
-  </si>
-  <si>
     <t>!RIpMlKfc8P5&gt;hHz=7wE</t>
   </si>
   <si>
     <t>eli37@email.com</t>
   </si>
   <si>
+    <t>Eli_Santos</t>
+  </si>
+  <si>
     <t>Elio</t>
   </si>
   <si>
     <t>Sebastião dos Santos</t>
   </si>
   <si>
-    <t>Eli_Santos</t>
-  </si>
-  <si>
     <t>6RIxsl&lt;#xKBt#v!sB_HT</t>
   </si>
   <si>
     <t>evan38@email.com</t>
   </si>
   <si>
+    <t>Evan_Souza</t>
+  </si>
+  <si>
     <t>Evandro</t>
   </si>
   <si>
     <t>Leonardo de Souza</t>
   </si>
   <si>
-    <t>Evan_Souza</t>
-  </si>
-  <si>
     <t>SDlR_5UA2upg_IpMWPyr</t>
   </si>
   <si>
     <t>fab39@email.com</t>
   </si>
   <si>
+    <t>Fab_Prado</t>
+  </si>
+  <si>
     <t>Fábio</t>
   </si>
   <si>
     <t>Alexandre Cunha</t>
   </si>
   <si>
-    <t>Fab_Prado</t>
-  </si>
-  <si>
     <t>T#@&amp;$6Kn8&amp;ECK$MtQgS-</t>
   </si>
   <si>
     <t>fer40@email.com</t>
   </si>
   <si>
+    <t>Fer_Bittencourt</t>
+  </si>
+  <si>
     <t>Fernando</t>
   </si>
   <si>
     <t>Bittencourt</t>
   </si>
   <si>
-    <t>Fer_Bittencourt</t>
-  </si>
-  <si>
     <t>0-gPFmvVnh7&amp;lSD&lt;q%cb</t>
   </si>
   <si>
     <t>fer41@email.com</t>
   </si>
   <si>
+    <t>Fer_Azevedo</t>
+  </si>
+  <si>
     <t>Pereira Azevedo</t>
   </si>
   <si>
-    <t>Fer_Azevedo</t>
-  </si>
-  <si>
     <t>A@(xk-rT+LBEwt+7WyBP</t>
   </si>
   <si>
     <t>fer42@email.com</t>
   </si>
   <si>
+    <t>Fer_Melo</t>
+  </si>
+  <si>
     <t>Silva de Melo</t>
   </si>
   <si>
-    <t>Fer_Melo</t>
-  </si>
-  <si>
     <t>y8p$75ZQgi%7D0H&lt;s4R3</t>
   </si>
   <si>
     <t>fil43@email.com</t>
   </si>
   <si>
+    <t>Fil_Espindola</t>
+  </si>
+  <si>
     <t>Filipe</t>
   </si>
   <si>
     <t>Rocha Espindola</t>
   </si>
   <si>
-    <t>Fil_Espindola</t>
-  </si>
-  <si>
     <t>yggn-BXgYrMdB3$$%_=x</t>
   </si>
   <si>
     <t>gil44@email.com</t>
   </si>
   <si>
+    <t>Gil_Nunes</t>
+  </si>
+  <si>
     <t>Gilmar</t>
   </si>
   <si>
     <t>Rozario Nunes</t>
   </si>
   <si>
-    <t>Gil_Nunes</t>
-  </si>
-  <si>
     <t>6%&gt;PLmb)WEG2Fv647)y!</t>
   </si>
   <si>
     <t>gre45@email.com</t>
   </si>
   <si>
+    <t>Gre_Damazio</t>
+  </si>
+  <si>
     <t>Gregory</t>
   </si>
   <si>
     <t>Kravetz Damazio</t>
   </si>
   <si>
-    <t>Gre_Damazio</t>
-  </si>
-  <si>
     <t>HD9yfCcRAk$KO$jR6yql</t>
   </si>
   <si>
     <t>gui46@email.com</t>
   </si>
   <si>
+    <t>Gui_Araujo</t>
+  </si>
+  <si>
     <t>Guilherme</t>
   </si>
   <si>
     <t>Gonçalves de Araújo</t>
   </si>
   <si>
-    <t>Gui_Araujo</t>
-  </si>
-  <si>
     <t>3ltu$WGtI#IIJ%Iv+KJ#</t>
   </si>
   <si>
     <t>gui47@email.com</t>
   </si>
   <si>
+    <t>Gui_Santos</t>
+  </si>
+  <si>
     <t>Everton dos Santos</t>
   </si>
   <si>
-    <t>Gui_Santos</t>
-  </si>
-  <si>
     <t>97McSgn_!qWK%-kW5Gzv</t>
   </si>
   <si>
     <t>gut48@email.com</t>
   </si>
   <si>
+    <t>Gut_Guto</t>
+  </si>
+  <si>
     <t>Gutenberg</t>
   </si>
   <si>
     <t>Oliveira Bitencourt</t>
   </si>
   <si>
-    <t>Gut_Guto</t>
-  </si>
-  <si>
     <t>gZ&gt;#_b$zQm0&lt;LYh&amp;*hDq</t>
   </si>
   <si>
     <t>iar49@email.com</t>
   </si>
   <si>
+    <t>Iar_Rampa</t>
+  </si>
+  <si>
     <t>Iara</t>
   </si>
   <si>
     <t>Fátima Rampa</t>
   </si>
   <si>
-    <t>Iar_Rampa</t>
-  </si>
-  <si>
     <t>QaNE4QLGbMw)L72Fhaxp</t>
   </si>
   <si>
     <t>iva50@email.com</t>
   </si>
   <si>
+    <t>Iva_Koop</t>
+  </si>
+  <si>
     <t>Ivanir</t>
   </si>
   <si>
     <t>Koop</t>
   </si>
   <si>
-    <t>Iva_Koop</t>
-  </si>
-  <si>
     <t>JTq1+MUf5Gk)gmEuASm$</t>
   </si>
   <si>
     <t>jab51@email.com</t>
   </si>
   <si>
+    <t>Jab_Damasceno</t>
+  </si>
+  <si>
     <t>Jabson</t>
   </si>
   <si>
     <t>Francisco Damasceno</t>
   </si>
   <si>
-    <t>Jab_Damasceno</t>
-  </si>
-  <si>
     <t>-$RfZ8f^A!XTMa8vbyG3</t>
   </si>
   <si>
     <t>jai52@email.com</t>
   </si>
   <si>
+    <t>Jai_Pereira</t>
+  </si>
+  <si>
     <t>Jair</t>
   </si>
   <si>
     <t>Luiz Pereira</t>
   </si>
   <si>
-    <t>Jai_Pereira</t>
-  </si>
-  <si>
     <t>dfjU7m?qLEFQQh^AuKm&gt;</t>
   </si>
   <si>
     <t>jan53@email.com</t>
   </si>
   <si>
+    <t>Jan_Melo</t>
+  </si>
+  <si>
     <t>Janaina</t>
   </si>
   <si>
     <t>Melo Lopes</t>
   </si>
   <si>
-    <t>Jan_Melo</t>
-  </si>
-  <si>
     <t>)DlA0&gt;@l88wG&lt;Cm?Z8Gz</t>
   </si>
   <si>
     <t>jea54@email.com</t>
   </si>
   <si>
+    <t>Jea_Ventura</t>
+  </si>
+  <si>
     <t>Jean</t>
   </si>
   <si>
     <t>Cleberson de Ventura</t>
   </si>
   <si>
-    <t>Jea_Ventura</t>
-  </si>
-  <si>
     <t>hT?eQ)WUr7ZUk*$k0GIA</t>
   </si>
   <si>
     <t>jef55@email.com</t>
   </si>
   <si>
+    <t>Jef_Xavier</t>
+  </si>
+  <si>
     <t>Jeferson</t>
   </si>
   <si>
     <t>Ricardo Xavier</t>
   </si>
   <si>
-    <t>Jef_Xavier</t>
-  </si>
-  <si>
     <t>NtDD?+23&gt;h5SQ^=U_(S-</t>
   </si>
   <si>
     <t>joao56@email.com</t>
   </si>
   <si>
+    <t>Joao_Freitas</t>
+  </si>
+  <si>
     <t>João</t>
   </si>
   <si>
     <t>Paulo Fernandes de Freitas</t>
   </si>
   <si>
-    <t>Joao_Freitas</t>
-  </si>
-  <si>
     <t>Q)h)I#i^Hr3u9tPLhjY-</t>
   </si>
   <si>
     <t>joao57@email.com</t>
   </si>
   <si>
+    <t>JC_Cardoso</t>
+  </si>
+  <si>
     <t>Victor Cardoso</t>
   </si>
   <si>
-    <t>JC_Cardoso</t>
-  </si>
-  <si>
     <t>TA%WSJvdjlDjnDUtcZJ^</t>
   </si>
   <si>
     <t>joa58@email.com</t>
   </si>
   <si>
+    <t>Joaq_Brito</t>
+  </si>
+  <si>
     <t>Joaquim</t>
   </si>
   <si>
     <t>Geraldo Martins de Brito</t>
   </si>
   <si>
-    <t>Joaq_Brito</t>
-  </si>
-  <si>
     <t>&gt;QmbTkmf)&gt;g-Slqd%d&amp;#</t>
   </si>
   <si>
     <t>joe59@email.com</t>
   </si>
   <si>
+    <t>Joe_Severino</t>
+  </si>
+  <si>
     <t>Joel</t>
   </si>
   <si>
     <t>Severino</t>
   </si>
   <si>
-    <t>Joe_Severino</t>
-  </si>
-  <si>
     <t>P+XLZTDJs!&amp;ro*^W?HjH</t>
   </si>
   <si>
     <t>joh60@email.com</t>
   </si>
   <si>
+    <t>Joh_Sousa</t>
+  </si>
+  <si>
     <t>Johnattan</t>
   </si>
   <si>
     <t>Gonçalves Sousa</t>
   </si>
   <si>
-    <t>Joh_Sousa</t>
-  </si>
-  <si>
     <t>)4o&gt;sW2PN$zf5^5_MD!r</t>
   </si>
   <si>
     <t>jon61@email.com</t>
   </si>
   <si>
+    <t>Jon_Gonçalves</t>
+  </si>
+  <si>
     <t>Jonas</t>
   </si>
   <si>
     <t>Eduardo de Freitas Gonçalves</t>
   </si>
   <si>
-    <t>Jon_Gonçalves</t>
-  </si>
-  <si>
     <t>99QhxQ3+(ZAS&gt;9FAR&lt;N+</t>
   </si>
   <si>
     <t>jos62@email.com</t>
   </si>
   <si>
+    <t>Jos_Santos</t>
+  </si>
+  <si>
     <t>José</t>
   </si>
   <si>
     <t>Carlos dos Santos</t>
   </si>
   <si>
-    <t>Jos_Santos</t>
-  </si>
-  <si>
     <t>t%tfNrh&gt;uw)3f?4s_YFf</t>
   </si>
   <si>
     <t>jos63@email.com</t>
   </si>
   <si>
+    <t>Jos_Luciano</t>
+  </si>
+  <si>
     <t>Carlos Luciano</t>
   </si>
   <si>
-    <t>Jos_Luciano</t>
-  </si>
-  <si>
     <t>2@t=JDtkTQhbf1&gt;klO9@</t>
   </si>
   <si>
     <t>jos64@email.com</t>
   </si>
   <si>
+    <t>Jos_Peixe</t>
+  </si>
+  <si>
     <t>Carlos Peixe (BC)</t>
   </si>
   <si>
-    <t>Jos_Peixe</t>
-  </si>
-  <si>
     <t>q9cuRMJj4cv0-N3osm(!</t>
   </si>
   <si>
     <t>jul65@email.com</t>
   </si>
   <si>
+    <t>Jul_Vieira</t>
+  </si>
+  <si>
     <t>Juliana</t>
   </si>
   <si>
     <t>Ivonete Vieira</t>
   </si>
   <si>
-    <t>Jul_Vieira</t>
-  </si>
-  <si>
     <t>3lVZFq(5Q5)Uttpp$aiz</t>
   </si>
   <si>
     <t>jul66@email.com</t>
   </si>
   <si>
+    <t>JJ_Souza</t>
+  </si>
+  <si>
     <t>Júlio</t>
   </si>
   <si>
     <t>José de Souza</t>
   </si>
   <si>
-    <t>JJ_Souza</t>
-  </si>
-  <si>
     <t>cun2X+=F?+&gt;$IYLLZ!)n</t>
   </si>
   <si>
     <t>kaioAgu68@email.com</t>
   </si>
   <si>
+    <t>Kaio_Antunes</t>
+  </si>
+  <si>
     <t>Kaio</t>
   </si>
   <si>
     <t>de Aguiar Antunes</t>
   </si>
   <si>
-    <t>Kaio_Antunes</t>
-  </si>
-  <si>
     <t>EW0v@V+A&lt;-e&gt;Z)8klN(4</t>
   </si>
   <si>
     <t>lae068@email.com</t>
   </si>
   <si>
+    <t>Lae_Demetrio</t>
+  </si>
+  <si>
     <t>Laércio</t>
   </si>
   <si>
     <t>Demétrio</t>
   </si>
   <si>
-    <t>Lae_Demetrio</t>
-  </si>
-  <si>
     <t>-ue_9qi&amp;+#$-qKBMT!#N</t>
   </si>
   <si>
     <t>lau69@email.com</t>
   </si>
   <si>
+    <t>Lau_Vieira</t>
+  </si>
+  <si>
     <t>Laureci</t>
   </si>
   <si>
     <t>Laura Vieira</t>
   </si>
   <si>
-    <t>Lau_Vieira</t>
-  </si>
-  <si>
     <t>&gt;I&amp;-VSAiq&gt;qVu?7$vpAg</t>
   </si>
   <si>
     <t>lea70@email.com</t>
   </si>
   <si>
+    <t>Lea_Gonçalves</t>
+  </si>
+  <si>
     <t>Leandro</t>
   </si>
   <si>
     <t>Lopes Gonçalves</t>
   </si>
   <si>
-    <t>Lea_Gonçalves</t>
-  </si>
-  <si>
     <t>J1R?lod+LMZ4aacdA=(@</t>
   </si>
   <si>
     <t>lea71@email.com</t>
   </si>
   <si>
+    <t>Lea_Souza</t>
+  </si>
+  <si>
     <t>Manoel de Souza</t>
   </si>
   <si>
-    <t>Lea_Souza</t>
-  </si>
-  <si>
     <t>p_6m3r5Yhv2z)^cMWf9t</t>
   </si>
   <si>
     <t>leo72@email.com</t>
   </si>
   <si>
+    <t>Leo_Souza</t>
+  </si>
+  <si>
     <t>Leonardo</t>
   </si>
   <si>
-    <t>Leo_Souza</t>
-  </si>
-  <si>
     <t>cOAdk3ywxjSHHXF%nc=!</t>
   </si>
   <si>
     <t>lid73@email.com</t>
   </si>
   <si>
+    <t>Lidia_Jesus</t>
+  </si>
+  <si>
     <t>Lidia</t>
   </si>
   <si>
     <t>Zelia de Jesus (aposentada)</t>
   </si>
   <si>
-    <t>Lidia_Jesus</t>
-  </si>
-  <si>
     <t>J=ig=Im7d8qD5hE*V1uc</t>
   </si>
   <si>
     <t>luc74@email.com</t>
   </si>
   <si>
+    <t>Luc_Machado</t>
+  </si>
+  <si>
     <t>Luciana</t>
   </si>
   <si>
     <t>Alcioneia de Souza Machado</t>
   </si>
   <si>
-    <t>Luc_Machado</t>
-  </si>
-  <si>
     <t>Sy(mg=M5L0Who&lt;_yl!R$</t>
   </si>
   <si>
     <t>luc75@email.com</t>
   </si>
   <si>
+    <t>Luc_Souza</t>
+  </si>
+  <si>
     <t>Luciano</t>
   </si>
   <si>
-    <t>Luc_Souza</t>
-  </si>
-  <si>
     <t>nKRDIph@jsj**OqaH-H8</t>
   </si>
   <si>
@@ -1087,582 +1087,582 @@
     <t>luc77@email.com</t>
   </si>
   <si>
+    <t>Luc_Vieira</t>
+  </si>
+  <si>
     <t>Valdevino Vieira</t>
   </si>
   <si>
-    <t>Luc_Vieira</t>
-  </si>
-  <si>
     <t>1tpsD+Rn2QITX-4A&lt;p99</t>
   </si>
   <si>
     <t>luc78@email.com</t>
   </si>
   <si>
+    <t>Luci_Souza</t>
+  </si>
+  <si>
     <t>Lucilene</t>
   </si>
   <si>
     <t>Alcioneia de Souza(alcioneia)</t>
   </si>
   <si>
-    <t>Luci_Souza</t>
-  </si>
-  <si>
     <t>y)cH%L)QMv)D_8S!FOzV</t>
   </si>
   <si>
     <t>luc79@email.com</t>
   </si>
   <si>
+    <t>Luc_Nunes</t>
+  </si>
+  <si>
     <t>Lucimar</t>
   </si>
   <si>
     <t>Andrade Nunes</t>
   </si>
   <si>
-    <t>Luc_Nunes</t>
-  </si>
-  <si>
     <t>axfKHo&gt;&amp;PB=h&lt;0jlhowj</t>
   </si>
   <si>
     <t>luc80@email.com</t>
   </si>
   <si>
+    <t>LM_Souza</t>
+  </si>
+  <si>
     <t>Lucinei</t>
   </si>
   <si>
-    <t>LM_Souza</t>
-  </si>
-  <si>
     <t>oM$oNxRnmMdnH)T7xwa&amp;</t>
   </si>
   <si>
     <t>lui81@email.com</t>
   </si>
   <si>
+    <t>Lui_Domingues</t>
+  </si>
+  <si>
     <t>Luis</t>
   </si>
   <si>
     <t>Henrique Domingues</t>
   </si>
   <si>
-    <t>Lui_Domingues</t>
-  </si>
-  <si>
     <t>6zMJkyZi+G?FZub2G60Z</t>
   </si>
   <si>
     <t>lui82@email.com</t>
   </si>
   <si>
+    <t>Lui_Souza</t>
+  </si>
+  <si>
     <t>Luiz</t>
   </si>
   <si>
     <t>Carlos Silva de Souza</t>
   </si>
   <si>
-    <t>Lui_Souza</t>
-  </si>
-  <si>
     <t>Q&amp;mdKm9_O3wt$Ov8Z4hH</t>
   </si>
   <si>
     <t>lui83@email.com</t>
   </si>
   <si>
+    <t>Lui_Arcenio</t>
+  </si>
+  <si>
     <t>Fernando Arcenio</t>
   </si>
   <si>
-    <t>Lui_Arcenio</t>
-  </si>
-  <si>
     <t>&amp;5EK&amp;1@XUe8fw^k@N*#j</t>
   </si>
   <si>
     <t>lui84@email.com</t>
   </si>
   <si>
+    <t>Lui_Pereira</t>
+  </si>
+  <si>
     <t>Henrique Pereira(Alcioneia)</t>
   </si>
   <si>
-    <t>Lui_Pereira</t>
-  </si>
-  <si>
     <t>J@r6@8FWQLM&amp;w&gt;Tw3j*J</t>
   </si>
   <si>
     <t>mac85@email.com</t>
   </si>
   <si>
+    <t>Mac_Alves</t>
+  </si>
+  <si>
     <t>Macário</t>
   </si>
   <si>
     <t>Manoel Alves</t>
   </si>
   <si>
-    <t>Mac_Alves</t>
-  </si>
-  <si>
     <t>_dVW&lt;_iwodic)-ybjH#_</t>
   </si>
   <si>
     <t>mai86@email.com</t>
   </si>
   <si>
+    <t>Mai_Carniel</t>
+  </si>
+  <si>
     <t>Maikel</t>
   </si>
   <si>
     <t>Lazzari Carniel</t>
   </si>
   <si>
-    <t>Mai_Carniel</t>
-  </si>
-  <si>
     <t>ilf)$KKChzkduiMYQK!3</t>
   </si>
   <si>
     <t>man87@email.com</t>
   </si>
   <si>
+    <t>Man_Simao</t>
+  </si>
+  <si>
     <t>Manoel</t>
   </si>
   <si>
     <t>Luiz Simão (aposentado)</t>
   </si>
   <si>
-    <t>Man_Simao</t>
-  </si>
-  <si>
     <t>HJ&gt;0Jj_HFCcI&amp;e1VQgl&gt;</t>
   </si>
   <si>
     <t>man88@email.com</t>
   </si>
   <si>
+    <t>Man_Filho</t>
+  </si>
+  <si>
     <t>Santana Filho</t>
   </si>
   <si>
-    <t>Man_Filho</t>
-  </si>
-  <si>
     <t>@?(Ip0QZ$*n5(+clb_ty</t>
   </si>
   <si>
     <t>mar89@email.com</t>
   </si>
   <si>
+    <t>Mar_Vieira</t>
+  </si>
+  <si>
     <t>Marçal</t>
   </si>
   <si>
     <t>Valdir Vieira</t>
   </si>
   <si>
-    <t>Mar_Vieira</t>
-  </si>
-  <si>
     <t>Q54NQ$S4u1jY9#C?Rfzl</t>
   </si>
   <si>
     <t>mar90@email.com</t>
   </si>
   <si>
+    <t>Mar_Fagundes</t>
+  </si>
+  <si>
     <t>Marcélio</t>
   </si>
   <si>
     <t>Luiz Fagundes</t>
   </si>
   <si>
-    <t>Mar_Fagundes</t>
-  </si>
-  <si>
     <t>zQ54NQ$S4u1jpoY9#C?Rfzl</t>
   </si>
   <si>
     <t>mar91@email.com</t>
   </si>
   <si>
+    <t>Mar_Taniguchi</t>
+  </si>
+  <si>
     <t>Marcelo</t>
   </si>
   <si>
     <t>Taniguchi</t>
   </si>
   <si>
-    <t>Mar_Taniguchi</t>
-  </si>
-  <si>
     <t>&gt;HimgtP&gt;3VRhgycfLdl0</t>
   </si>
   <si>
     <t>mar92@email.com</t>
   </si>
   <si>
+    <t>Mar_Oliveira</t>
+  </si>
+  <si>
     <t>MARCIA</t>
   </si>
   <si>
     <t>Regina Silva de Oliveira</t>
   </si>
   <si>
-    <t>Mar_Oliveira</t>
-  </si>
-  <si>
     <t>b&gt;Fxs!sum8@SrKKX7uh+</t>
   </si>
   <si>
     <t>mar93@email.com</t>
   </si>
   <si>
+    <t>Mar_Martins</t>
+  </si>
+  <si>
     <t>Marcio</t>
   </si>
   <si>
     <t>Martins</t>
   </si>
   <si>
-    <t>Mar_Martins</t>
-  </si>
-  <si>
     <t>ZWkye&amp;9jD)NE3xmo!@i5</t>
   </si>
   <si>
     <t>mar94@email.com</t>
   </si>
   <si>
+    <t>MarL_Fagundes</t>
+  </si>
+  <si>
     <t>Marconde</t>
   </si>
   <si>
-    <t>MarL_Fagundes</t>
-  </si>
-  <si>
     <t>e+@MWcS(tH@Zq9_O2=31</t>
   </si>
   <si>
     <t>mar95@email.com</t>
   </si>
   <si>
+    <t>Mar_Januario</t>
+  </si>
+  <si>
     <t>Marcos</t>
   </si>
   <si>
     <t>Henrique Januário</t>
   </si>
   <si>
-    <t>Mar_Januario</t>
-  </si>
-  <si>
     <t>zqBYIo!Sk#rpLGWZ&gt;Kug</t>
   </si>
   <si>
     <t>mar96@email.com</t>
   </si>
   <si>
+    <t>Maria_Rodrigues</t>
+  </si>
+  <si>
     <t>Maria</t>
   </si>
   <si>
     <t>Aparecida Rodrigues</t>
   </si>
   <si>
-    <t>Maria_Rodrigues</t>
-  </si>
-  <si>
     <t>r6T_x9oTCYI&amp;ukil9LUx</t>
   </si>
   <si>
     <t>mar97@email.com</t>
   </si>
   <si>
+    <t>Mar_Assis</t>
+  </si>
+  <si>
     <t>Bernadete de Assis</t>
   </si>
   <si>
-    <t>Mar_Assis</t>
-  </si>
-  <si>
     <t>1j7LCg&amp;N_=&amp;$c7@Y*w*Q</t>
   </si>
   <si>
     <t>mar98@email.com</t>
   </si>
   <si>
+    <t>Mar_Teixeira</t>
+  </si>
+  <si>
     <t>de Fátima Teixeira</t>
   </si>
   <si>
-    <t>Mar_Teixeira</t>
-  </si>
-  <si>
     <t>qe&amp;VncGwBj9FRvA=RonH</t>
   </si>
   <si>
     <t>mar99@email.com</t>
   </si>
   <si>
+    <t>Mari_Bonsenhor</t>
+  </si>
+  <si>
     <t>Marileuza</t>
   </si>
   <si>
     <t>Terezinha Bonsenhor</t>
   </si>
   <si>
-    <t>Mari_Bonsenhor</t>
-  </si>
-  <si>
     <t>0uK60tJg!Z&amp;Z3WN9&amp;qY9</t>
   </si>
   <si>
     <t>mar100@email.com</t>
   </si>
   <si>
+    <t>Mari_Fernandes</t>
+  </si>
+  <si>
     <t>Marina</t>
   </si>
   <si>
     <t>Martins Fernandes</t>
   </si>
   <si>
-    <t>Mari_Fernandes</t>
-  </si>
-  <si>
     <t>9U1aYC)&gt;+gKw&lt;L=PQZ1P</t>
   </si>
   <si>
     <t>mar101@email.com</t>
   </si>
   <si>
+    <t>Mar_Barcelos</t>
+  </si>
+  <si>
     <t>Marineide</t>
   </si>
   <si>
     <t>Lindaura Barcelos</t>
   </si>
   <si>
-    <t>Mar_Barcelos</t>
-  </si>
-  <si>
     <t>$AN^gjm$j2APGD!xAm9?</t>
   </si>
   <si>
     <t>maur102@email.com</t>
   </si>
   <si>
+    <t>M_Domingues</t>
+  </si>
+  <si>
     <t>Mauricio</t>
   </si>
   <si>
     <t>Domingues</t>
   </si>
   <si>
-    <t>M_Domingues</t>
-  </si>
-  <si>
     <t>iJSqz$kc6kc)7*d5EvlG</t>
   </si>
   <si>
     <t>moi103@email.com</t>
   </si>
   <si>
+    <t>Moi_Geber</t>
+  </si>
+  <si>
     <t>Moises</t>
   </si>
   <si>
     <t>Carlos Geber</t>
   </si>
   <si>
-    <t>Moi_Geber</t>
-  </si>
-  <si>
     <t>oZD+bFRenMag&lt;^vL&gt;Qlw</t>
   </si>
   <si>
     <t>moi104@email.com</t>
   </si>
   <si>
+    <t>Moi_Santana</t>
+  </si>
+  <si>
     <t>Nilso Santana</t>
   </si>
   <si>
-    <t>Moi_Santana</t>
-  </si>
-  <si>
     <t>yO9U)onvU&lt;oG!dV=&lt;UVs</t>
   </si>
   <si>
     <t>nei105@email.com</t>
   </si>
   <si>
+    <t>Nei_Gonçalves</t>
+  </si>
+  <si>
     <t>Neide</t>
   </si>
   <si>
     <t>Maria Eurides Gonçalves</t>
   </si>
   <si>
-    <t>Nei_Gonçalves</t>
-  </si>
-  <si>
     <t>y2ErQT7f&amp;S3kTg9zlm*l</t>
   </si>
   <si>
     <t>nik106@email.com</t>
   </si>
   <si>
+    <t>Nik_Vieira</t>
+  </si>
+  <si>
     <t>Nikson</t>
   </si>
   <si>
-    <t>Nik_Vieira</t>
-  </si>
-  <si>
     <t>%uYk&gt;X&gt;f!@IR#0M*Dq!u</t>
   </si>
   <si>
     <t>nil107@email.com</t>
   </si>
   <si>
+    <t>Nil_Silva</t>
+  </si>
+  <si>
     <t>Nilzete</t>
   </si>
   <si>
-    <t>Nil_Silva</t>
-  </si>
-  <si>
     <t>ZjUeG=Xjv-Ukjh+LKh6A</t>
   </si>
   <si>
     <t>nyc108@email.com</t>
   </si>
   <si>
+    <t>Nyc_Lopes</t>
+  </si>
+  <si>
     <t>Nycolas</t>
   </si>
   <si>
     <t>Lopes</t>
   </si>
   <si>
-    <t>Nyc_Lopes</t>
-  </si>
-  <si>
     <t>yCRGtVOa(GFnhl?t51&lt;_</t>
   </si>
   <si>
     <t>ozi109@email.com</t>
   </si>
   <si>
+    <t>Ozi_Oliveira</t>
+  </si>
+  <si>
     <t>Oziel</t>
   </si>
   <si>
     <t>Sousa de Oliveira</t>
   </si>
   <si>
-    <t>Ozi_Oliveira</t>
-  </si>
-  <si>
     <t>-PK=4Sa16KCBz*eoF30z</t>
   </si>
   <si>
     <t>pau110@email.com</t>
   </si>
   <si>
+    <t>Pau_Ferreira</t>
+  </si>
+  <si>
     <t>Paulo</t>
   </si>
   <si>
     <t>dos Passos Ferreira (aposentado)</t>
   </si>
   <si>
-    <t>Pau_Ferreira</t>
-  </si>
-  <si>
     <t>5U12nYX&gt;B27y$xYKS+YX</t>
   </si>
   <si>
     <t>pau111@email.com</t>
   </si>
   <si>
+    <t>Pau_Francisco</t>
+  </si>
+  <si>
     <t>José Francisco</t>
   </si>
   <si>
-    <t>Pau_Francisco</t>
-  </si>
-  <si>
     <t>C@G8EPuP&gt;8&amp;G1O4uOID0</t>
   </si>
   <si>
     <t>pau112@email.com</t>
   </si>
   <si>
+    <t>P_Cunha</t>
+  </si>
+  <si>
     <t>Roberto da Cunha</t>
   </si>
   <si>
-    <t>P_Cunha</t>
-  </si>
-  <si>
     <t>MPlHqemNR9ydaKGl?qI^</t>
   </si>
   <si>
     <t>ped113@email.com</t>
   </si>
   <si>
+    <t>Ped_Martins</t>
+  </si>
+  <si>
     <t>Pedro</t>
   </si>
   <si>
     <t>Henrique Martins</t>
   </si>
   <si>
-    <t>Ped_Martins</t>
-  </si>
-  <si>
     <t>0vgtQlmJN&gt;KFc$0%KXlB</t>
   </si>
   <si>
     <t>pet114@email.com</t>
   </si>
   <si>
+    <t>Pet_Costa</t>
+  </si>
+  <si>
     <t>Peterson</t>
   </si>
   <si>
     <t>Adelino dos Santos da Costa</t>
   </si>
   <si>
-    <t>Pet_Costa</t>
-  </si>
-  <si>
     <t>DAg5_rYs!1A6jNS1Ca3+</t>
   </si>
   <si>
     <t>pet115@email.com</t>
   </si>
   <si>
+    <t>Pet_Domingues</t>
+  </si>
+  <si>
     <t>da Conceição Domingues</t>
   </si>
   <si>
-    <t>Pet_Domingues</t>
-  </si>
-  <si>
     <t>Qk2=S-EA2cSBL8qgmCy=</t>
   </si>
   <si>
     <t>raf116@email.com</t>
   </si>
   <si>
+    <t>Raf_Oschelski</t>
+  </si>
+  <si>
     <t>Rafael</t>
   </si>
   <si>
     <t>Batista Oschelski</t>
   </si>
   <si>
-    <t>Raf_Oschelski</t>
-  </si>
-  <si>
     <t>!VCp74yUb7PvAghG-a^Q</t>
   </si>
   <si>
     <t>raf117@email.com</t>
   </si>
   <si>
+    <t>Raf_Januário</t>
+  </si>
+  <si>
     <t>Januário</t>
   </si>
   <si>
-    <t>Raf_Januário</t>
-  </si>
-  <si>
     <t>P&lt;eb6bgK#F0C#?sP&amp;&lt;pZ</t>
   </si>
   <si>
     <t>raf118@email.com</t>
   </si>
   <si>
+    <t>Raf_Martins</t>
+  </si>
+  <si>
     <t>Juacir Martins</t>
   </si>
   <si>
-    <t>Raf_Martins</t>
-  </si>
-  <si>
     <t>q)$yB(C3fqtX)^m4^)+N</t>
   </si>
   <si>
@@ -1678,484 +1678,484 @@
     <t>ren120@email.com</t>
   </si>
   <si>
+    <t>Ren_Martins</t>
+  </si>
+  <si>
     <t>Renata</t>
   </si>
   <si>
     <t>Lacidina Martins</t>
   </si>
   <si>
-    <t>Ren_Martins</t>
-  </si>
-  <si>
     <t>!LlhpX6!9Mt7fqrVi*=0</t>
   </si>
   <si>
     <t>ric121@email.com</t>
   </si>
   <si>
+    <t>Ric_Arcenio</t>
+  </si>
+  <si>
     <t>Ricardo</t>
   </si>
   <si>
     <t>Osvaldi Arcenio</t>
   </si>
   <si>
-    <t>Ric_Arcenio</t>
-  </si>
-  <si>
     <t>q9PqWar2B(&lt;TQXOFdD4G</t>
   </si>
   <si>
     <t>rod122@email.com</t>
   </si>
   <si>
+    <t>Rod_Silva</t>
+  </si>
+  <si>
     <t>Rodrigo</t>
   </si>
   <si>
     <t>Cardoso da Silva</t>
   </si>
   <si>
-    <t>Rod_Silva</t>
-  </si>
-  <si>
     <t>Y+bYFOh#EAacGXgkCYTO</t>
   </si>
   <si>
     <t>rod123@email.com</t>
   </si>
   <si>
+    <t>Rod_Martins</t>
+  </si>
+  <si>
     <t>Ilton Martins</t>
   </si>
   <si>
-    <t>Rod_Martins</t>
-  </si>
-  <si>
     <t>&lt;!XR=b5v=mmc)bFIO?7k</t>
   </si>
   <si>
     <t>ros124@email.com</t>
   </si>
   <si>
+    <t>Ros_Pereira</t>
+  </si>
+  <si>
     <t>Rosana</t>
   </si>
   <si>
     <t>Irene Pereira</t>
   </si>
   <si>
-    <t>Ros_Pereira</t>
-  </si>
-  <si>
     <t>%?DF-WJhvIYM6kh+tgRn</t>
   </si>
   <si>
     <t>ros125@email.com</t>
   </si>
   <si>
+    <t>Ros_Alves</t>
+  </si>
+  <si>
     <t>Rosenete</t>
   </si>
   <si>
     <t>Norma Alves</t>
   </si>
   <si>
-    <t>Ros_Alves</t>
-  </si>
-  <si>
     <t>s(#EPo%cLV_+p7R4JKz$</t>
   </si>
   <si>
     <t>rua126@email.com</t>
   </si>
   <si>
+    <t>Rua_Runz</t>
+  </si>
+  <si>
     <t>Ruan</t>
   </si>
   <si>
     <t>Kunz</t>
   </si>
   <si>
-    <t>Rua_Runz</t>
-  </si>
-  <si>
     <t>&gt;#&amp;lzR+SSw9#u9L+_S&gt;3</t>
   </si>
   <si>
     <t>rud127@email.com</t>
   </si>
   <si>
+    <t>Rud_Rosa</t>
+  </si>
+  <si>
     <t>Rudnei</t>
   </si>
   <si>
     <t>Nazario da Rosa</t>
   </si>
   <si>
-    <t>Rud_Rosa</t>
-  </si>
-  <si>
     <t>ey%m1HU&lt;FIyK$b3usXcj</t>
   </si>
   <si>
     <t>sam128@email.com</t>
   </si>
   <si>
+    <t>Sam_Vieira</t>
+  </si>
+  <si>
     <t>Samuel</t>
   </si>
   <si>
     <t>Vieira</t>
   </si>
   <si>
-    <t>Sam_Vieira</t>
-  </si>
-  <si>
     <t>xWINuFiyXqN8=&gt;GMy_3@</t>
   </si>
   <si>
     <t>san129@email.com</t>
   </si>
   <si>
+    <t>San_Thome</t>
+  </si>
+  <si>
     <t>Sandra</t>
   </si>
   <si>
     <t>Regina da Silva Thomé</t>
   </si>
   <si>
-    <t>San_Thome</t>
-  </si>
-  <si>
     <t>jchdjx(Bx=fx99_4Gowx</t>
   </si>
   <si>
     <t>san130@email.com</t>
   </si>
   <si>
+    <t>San_Ulisses</t>
+  </si>
+  <si>
     <t>Sandro</t>
   </si>
   <si>
     <t>Aurélio Lopes Ulisses</t>
   </si>
   <si>
-    <t>San_Ulisses</t>
-  </si>
-  <si>
     <t>v7gj6BnA=^uC2z+@8mq&lt;</t>
   </si>
   <si>
     <t>sau131@email.com</t>
   </si>
   <si>
+    <t>Saulo_Sousa</t>
+  </si>
+  <si>
     <t>Saulo</t>
   </si>
   <si>
     <t>Renato de Sousa</t>
   </si>
   <si>
-    <t>Saulo_Sousa</t>
-  </si>
-  <si>
     <t>u9EV2&lt;DVMGP&lt;PmsY#X92</t>
   </si>
   <si>
     <t>ser132@email.com</t>
   </si>
   <si>
+    <t>Ser_Lopes</t>
+  </si>
+  <si>
     <t>Sergio</t>
   </si>
   <si>
     <t>Ongino Lopes</t>
   </si>
   <si>
-    <t>Ser_Lopes</t>
-  </si>
-  <si>
     <t>B9jYfqnRJ2Th9X1e8wZ&amp;</t>
   </si>
   <si>
     <t>sid133@email.com</t>
   </si>
   <si>
+    <t>Sid_Gonçalves</t>
+  </si>
+  <si>
     <t>Sidnei</t>
   </si>
   <si>
     <t>Gonçalves</t>
   </si>
   <si>
-    <t>Sid_Gonçalves</t>
-  </si>
-  <si>
     <t>%V?rFH%yT@7g81*&lt;YulJ</t>
   </si>
   <si>
     <t>sil134@email.com</t>
   </si>
   <si>
+    <t>Sil_Vieira</t>
+  </si>
+  <si>
     <t>Silvano</t>
   </si>
   <si>
-    <t>Sil_Vieira</t>
-  </si>
-  <si>
     <t>E@rl)6HfdRs2-FeGWbG#</t>
   </si>
   <si>
     <t>sil135@email.com</t>
   </si>
   <si>
+    <t>Sil_Santana</t>
+  </si>
+  <si>
     <t>Silvia</t>
   </si>
   <si>
     <t>Regina Correia Santana</t>
   </si>
   <si>
-    <t>Sil_Santana</t>
-  </si>
-  <si>
     <t>Pb!fub22s9gs)v85q%+4</t>
   </si>
   <si>
     <t>sue136@email.com</t>
   </si>
   <si>
+    <t>Sue_Silva</t>
+  </si>
+  <si>
     <t>Suelen</t>
   </si>
   <si>
     <t>Florencio Andrade da Silva</t>
   </si>
   <si>
-    <t>Sue_Silva</t>
-  </si>
-  <si>
     <t>&lt;fpV*00M##fr-Y&gt;knf=%</t>
   </si>
   <si>
     <t>thi137@email.com</t>
   </si>
   <si>
+    <t>Thi_Danielevicz</t>
+  </si>
+  <si>
     <t>Thiago</t>
   </si>
   <si>
     <t>Oliveira Danielevicz</t>
   </si>
   <si>
-    <t>Thi_Danielevicz</t>
-  </si>
-  <si>
     <t>@H&amp;$3T$R&amp;=*(dP2sEXG!</t>
   </si>
   <si>
     <t>val138@email.com</t>
   </si>
   <si>
+    <t>Val_Rosa</t>
+  </si>
+  <si>
     <t>Valcivia</t>
   </si>
   <si>
     <t>Minelva Alves Rosa</t>
   </si>
   <si>
-    <t>Val_Rosa</t>
-  </si>
-  <si>
     <t>VmTXU-N4P8+&amp;8L0dXoq=</t>
   </si>
   <si>
     <t>val139@email.com</t>
   </si>
   <si>
+    <t>Val_Borges</t>
+  </si>
+  <si>
     <t>Valdemiro</t>
   </si>
   <si>
     <t>Andrino Borges</t>
   </si>
   <si>
-    <t>Val_Borges</t>
-  </si>
-  <si>
     <t>b!0S&lt;i7VX#WFUMc%o?DH</t>
   </si>
   <si>
     <t>val140@email.com</t>
   </si>
   <si>
+    <t>Val_Inacio</t>
+  </si>
+  <si>
     <t>Valmor</t>
   </si>
   <si>
     <t>Bertoldo Inácio (aposentado)</t>
   </si>
   <si>
-    <t>Val_Inacio</t>
-  </si>
-  <si>
     <t>3c5V0naYni0PQvd4dGa1</t>
   </si>
   <si>
     <t>val141@email.com</t>
   </si>
   <si>
+    <t>Val_Filho</t>
+  </si>
+  <si>
     <t>Vieira da Cunha Filho</t>
   </si>
   <si>
-    <t>Val_Filho</t>
-  </si>
-  <si>
     <t>(#ED&amp;3A0tTazElOJhf1P</t>
   </si>
   <si>
     <t>vil142@email.com</t>
   </si>
   <si>
+    <t>Vil_Vieira</t>
+  </si>
+  <si>
     <t>Vilmar</t>
   </si>
   <si>
     <t>Dilermando Vieira</t>
   </si>
   <si>
-    <t>Vil_Vieira</t>
-  </si>
-  <si>
     <t>$273slUL_7pMVD&gt;FY$_K</t>
   </si>
   <si>
     <t>vil143@email.com</t>
   </si>
   <si>
+    <t>Vil_Pires</t>
+  </si>
+  <si>
     <t>Valmor Pires</t>
   </si>
   <si>
-    <t>Vil_Pires</t>
-  </si>
-  <si>
     <t>(aUcWhwbOaH80rBuUwdD</t>
   </si>
   <si>
     <t>wan144@email.com</t>
   </si>
   <si>
+    <t>Wan_Borges</t>
+  </si>
+  <si>
     <t>Wanderlei</t>
   </si>
   <si>
-    <t>Wan_Borges</t>
-  </si>
-  <si>
     <t>YY7NR?Q(SAEnBV2u6l!5</t>
   </si>
   <si>
     <t>wil145@email.com</t>
   </si>
   <si>
+    <t>Wil_Peixoto</t>
+  </si>
+  <si>
     <t>Willian</t>
   </si>
   <si>
     <t>Vinicius Peixoto</t>
   </si>
   <si>
-    <t>Wil_Peixoto</t>
-  </si>
-  <si>
     <t>&gt;zTS2?3p(6!M7%JVeYhc</t>
   </si>
   <si>
     <t>zen146@email.com</t>
   </si>
   <si>
+    <t>Zen_Cunha</t>
+  </si>
+  <si>
     <t>Zenita</t>
   </si>
   <si>
     <t>Laura Vieira da Cunha</t>
   </si>
   <si>
-    <t>Zen_Cunha</t>
-  </si>
-  <si>
     <t>l5bUlvs!N&amp;z)q%DmMV^T</t>
   </si>
   <si>
     <t>pedro147@email.com</t>
   </si>
   <si>
+    <t>PP_Silva</t>
+  </si>
+  <si>
     <t>Paulo da Silva</t>
   </si>
   <si>
-    <t>PP_Silva</t>
-  </si>
-  <si>
     <t>UUW=7y)PfcjKnfw@d0uL</t>
   </si>
   <si>
     <t>joao150@email.com</t>
   </si>
   <si>
+    <t>Joao_Teixeira</t>
+  </si>
+  <si>
     <t>Idalino Teixeira</t>
   </si>
   <si>
-    <t>Joao_Teixeira</t>
-  </si>
-  <si>
     <t>UUW=7y)rghcoonfw@d0uL</t>
   </si>
   <si>
     <t>tati151@email.com</t>
   </si>
   <si>
+    <t>Tati_Nunes</t>
+  </si>
+  <si>
     <t>Tatiane</t>
   </si>
   <si>
     <t>dos Santos Nunes</t>
   </si>
   <si>
-    <t>Tati_Nunes</t>
-  </si>
-  <si>
     <t>l5RTUlvs!N&amp;z)q%DmMV^T</t>
   </si>
   <si>
     <t>ailson152@email.com</t>
   </si>
   <si>
+    <t>Ail_Mariano</t>
+  </si>
+  <si>
     <t>Ailson</t>
   </si>
   <si>
     <t>Rosimiro Mariano</t>
   </si>
   <si>
-    <t>Ail_Mariano</t>
-  </si>
-  <si>
     <t>(#ED&amp;3AyhkLTazElOJhf1P</t>
   </si>
   <si>
     <t>tiago153@email.com</t>
   </si>
   <si>
+    <t>TI_Mariano</t>
+  </si>
+  <si>
     <t>Tiago</t>
   </si>
   <si>
     <t>de Oliveira Mariano</t>
   </si>
   <si>
-    <t>TI_Mariano</t>
-  </si>
-  <si>
     <t>#rTiGGgh87#!erhKlPPmR4@</t>
   </si>
   <si>
     <t>gilberto154@email.com</t>
   </si>
   <si>
+    <t>Kh_Gilberto</t>
+  </si>
+  <si>
     <t>Gilberto</t>
   </si>
   <si>
     <t>Kuhn</t>
   </si>
   <si>
-    <t>Kh_Gilberto</t>
-  </si>
-  <si>
     <t>kh@bU#85#gt!2g@kb77Dz</t>
   </si>
   <si>
     <t>thalia155@email.com</t>
   </si>
   <si>
+    <t>Tha_Miranda</t>
+  </si>
+  <si>
     <t>Thalia</t>
-  </si>
-  <si>
-    <t>Tha_Miranda</t>
   </si>
   <si>
     <t>jkLTW=7y)rghcoonfw@d0uL</t>
@@ -2418,9 +2418,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="23.38"/>
-    <col customWidth="1" min="2" max="2" width="26.13"/>
-    <col customWidth="1" min="3" max="3" width="36.5"/>
-    <col customWidth="1" min="4" max="4" width="18.38"/>
+    <col customWidth="1" min="2" max="2" width="18.38"/>
+    <col customWidth="1" min="3" max="3" width="26.13"/>
+    <col customWidth="1" min="4" max="4" width="36.5"/>
     <col customWidth="1" min="5" max="5" width="36.63"/>
     <col customWidth="1" min="6" max="6" width="10.5"/>
     <col customWidth="1" min="7" max="7" width="29.5"/>
@@ -2430,13 +2430,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2447,13 +2447,13 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2464,13 +2464,13 @@
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2481,13 +2481,13 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2498,13 +2498,13 @@
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2515,13 +2515,13 @@
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2532,13 +2532,13 @@
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2549,13 +2549,13 @@
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2566,13 +2566,13 @@
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2583,13 +2583,13 @@
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>40</v>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2600,13 +2600,13 @@
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2617,13 +2617,13 @@
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2634,13 +2634,13 @@
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>54</v>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -2651,13 +2651,13 @@
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2668,14 +2668,14 @@
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="1" t="s">
         <v>69</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>70</v>
@@ -2685,13 +2685,13 @@
       <c r="A16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2702,13 +2702,13 @@
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2719,13 +2719,13 @@
       <c r="A18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2736,13 +2736,13 @@
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -2753,13 +2753,13 @@
       <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2770,13 +2770,13 @@
       <c r="A21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -2787,13 +2787,13 @@
       <c r="A22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -2804,13 +2804,13 @@
       <c r="A23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -2821,13 +2821,13 @@
       <c r="A24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -2838,13 +2838,13 @@
       <c r="A25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -2855,13 +2855,13 @@
       <c r="A26" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -2872,13 +2872,13 @@
       <c r="A27" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -2889,13 +2889,13 @@
       <c r="A28" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2906,13 +2906,13 @@
       <c r="A29" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -2923,13 +2923,13 @@
       <c r="A30" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -2940,13 +2940,13 @@
       <c r="A31" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>142</v>
+      <c r="B31" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -2957,13 +2957,13 @@
       <c r="A32" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>142</v>
+      <c r="B32" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>152</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -2974,13 +2974,13 @@
       <c r="A33" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -2991,13 +2991,13 @@
       <c r="A34" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>162</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -3008,13 +3008,13 @@
       <c r="A35" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>160</v>
+      <c r="B35" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -3025,13 +3025,13 @@
       <c r="A36" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>171</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -3042,13 +3042,13 @@
       <c r="A37" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>176</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -3076,13 +3076,13 @@
       <c r="A39" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>186</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -3093,13 +3093,13 @@
       <c r="A40" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>184</v>
+      <c r="B40" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D40" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>190</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -3110,13 +3110,13 @@
       <c r="A41" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>184</v>
+      <c r="B41" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>194</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -3127,13 +3127,13 @@
       <c r="A42" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -3144,13 +3144,13 @@
       <c r="A43" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -3161,13 +3161,13 @@
       <c r="A44" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -3195,13 +3195,13 @@
       <c r="A46" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>212</v>
+      <c r="B46" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D46" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -3212,13 +3212,13 @@
       <c r="A47" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>223</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -3229,13 +3229,13 @@
       <c r="A48" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>228</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -3246,13 +3246,13 @@
       <c r="A49" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>233</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -3263,13 +3263,13 @@
       <c r="A50" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>238</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -3280,13 +3280,13 @@
       <c r="A51" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>243</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -3297,13 +3297,13 @@
       <c r="A52" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>248</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -3314,13 +3314,13 @@
       <c r="A53" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>253</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -3331,13 +3331,13 @@
       <c r="A54" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>258</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -3348,13 +3348,13 @@
       <c r="A55" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -3365,13 +3365,13 @@
       <c r="A56" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>261</v>
+      <c r="B56" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D56" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -3382,13 +3382,13 @@
       <c r="A57" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>272</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -3399,13 +3399,13 @@
       <c r="A58" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>275</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>277</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -3416,13 +3416,13 @@
       <c r="A59" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>280</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>282</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -3433,13 +3433,13 @@
       <c r="A60" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>285</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>287</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -3450,13 +3450,13 @@
       <c r="A61" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>292</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -3467,13 +3467,13 @@
       <c r="A62" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>290</v>
+      <c r="B62" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D62" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>296</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -3484,13 +3484,13 @@
       <c r="A63" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>290</v>
+      <c r="B63" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D63" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>300</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -3501,13 +3501,13 @@
       <c r="A64" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>303</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>305</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -3518,13 +3518,13 @@
       <c r="A65" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>308</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>310</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -3535,13 +3535,13 @@
       <c r="A66" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>313</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>315</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -3552,13 +3552,13 @@
       <c r="A67" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>318</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>320</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -3569,13 +3569,13 @@
       <c r="A68" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>323</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>325</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -3586,13 +3586,13 @@
       <c r="A69" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>330</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -3603,13 +3603,13 @@
       <c r="A70" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>328</v>
+      <c r="B70" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D70" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>334</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -3620,14 +3620,14 @@
       <c r="A71" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>337</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D71" s="1" t="s">
         <v>338</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>339</v>
@@ -3654,13 +3654,13 @@
       <c r="A73" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>346</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>348</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -3671,14 +3671,14 @@
       <c r="A74" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>351</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D74" s="1" t="s">
         <v>352</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>353</v>
@@ -3688,14 +3688,14 @@
       <c r="A75" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>351</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>356</v>
@@ -3705,13 +3705,13 @@
       <c r="A76" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>351</v>
+      <c r="B76" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D76" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>359</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -3722,13 +3722,13 @@
       <c r="A77" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>364</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -3739,13 +3739,13 @@
       <c r="A78" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>369</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -3756,14 +3756,14 @@
       <c r="A79" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D79" s="1" t="s">
         <v>373</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>374</v>
@@ -3773,13 +3773,13 @@
       <c r="A80" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>376</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>378</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -3790,13 +3790,13 @@
       <c r="A81" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>383</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -3807,13 +3807,13 @@
       <c r="A82" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>381</v>
+      <c r="B82" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D82" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -3824,13 +3824,13 @@
       <c r="A83" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>381</v>
+      <c r="B83" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D83" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>391</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -3841,13 +3841,13 @@
       <c r="A84" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -3858,13 +3858,13 @@
       <c r="A85" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>399</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>401</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -3875,13 +3875,13 @@
       <c r="A86" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>404</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>406</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -3892,13 +3892,13 @@
       <c r="A87" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>404</v>
+      <c r="B87" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D87" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>410</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -3909,13 +3909,13 @@
       <c r="A88" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="2" t="s">
         <v>415</v>
       </c>
       <c r="E88" s="3" t="s">
@@ -3926,13 +3926,13 @@
       <c r="A89" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>418</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>420</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -3943,13 +3943,13 @@
       <c r="A90" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>423</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>425</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -3960,13 +3960,13 @@
       <c r="A91" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>428</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>430</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -3977,13 +3977,13 @@
       <c r="A92" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>433</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>435</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -3994,14 +3994,14 @@
       <c r="A93" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>438</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D93" s="1" t="s">
         <v>439</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>440</v>
@@ -4011,13 +4011,13 @@
       <c r="A94" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>442</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>444</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -4028,13 +4028,13 @@
       <c r="A95" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>447</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>449</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -4045,13 +4045,13 @@
       <c r="A96" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>447</v>
+      <c r="B96" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D96" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>453</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -4062,13 +4062,13 @@
       <c r="A97" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>447</v>
+      <c r="B97" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D97" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>457</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -4096,13 +4096,13 @@
       <c r="A99" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>465</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>467</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -4113,13 +4113,13 @@
       <c r="A100" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>470</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>472</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -4130,13 +4130,13 @@
       <c r="A101" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>475</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="2" t="s">
         <v>477</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -4147,13 +4147,13 @@
       <c r="A102" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>480</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>482</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -4164,13 +4164,13 @@
       <c r="A103" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>480</v>
+      <c r="B103" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D103" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>486</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -4181,13 +4181,13 @@
       <c r="A104" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>491</v>
       </c>
       <c r="E104" s="1" t="s">
@@ -4198,14 +4198,14 @@
       <c r="A105" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>494</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D105" s="1" t="s">
         <v>495</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>496</v>
@@ -4215,14 +4215,14 @@
       <c r="A106" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>498</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D106" s="1" t="s">
         <v>499</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>500</v>
@@ -4232,13 +4232,13 @@
       <c r="A107" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>502</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>504</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -4249,13 +4249,13 @@
       <c r="A108" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>507</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="2" t="s">
         <v>509</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -4266,13 +4266,13 @@
       <c r="A109" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>512</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>514</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -4283,13 +4283,13 @@
       <c r="A110" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>512</v>
+      <c r="B110" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="D110" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>518</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -4300,13 +4300,13 @@
       <c r="A111" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>512</v>
+      <c r="B111" s="1" t="s">
+        <v>521</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D111" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>522</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -4317,13 +4317,13 @@
       <c r="A112" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>525</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="2" t="s">
         <v>527</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -4334,13 +4334,13 @@
       <c r="A113" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>530</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>532</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -4351,13 +4351,13 @@
       <c r="A114" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>530</v>
+      <c r="B114" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="D114" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>536</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -4368,13 +4368,13 @@
       <c r="A115" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>539</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>541</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -4385,13 +4385,13 @@
       <c r="A116" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>539</v>
+      <c r="B116" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D116" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>545</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -4402,13 +4402,13 @@
       <c r="A117" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>539</v>
+      <c r="B117" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D117" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>549</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -4419,14 +4419,14 @@
       <c r="A118" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>539</v>
+      <c r="B118" s="1" t="s">
+        <v>552</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>552</v>
+        <v>540</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>504</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>553</v>
@@ -4436,13 +4436,13 @@
       <c r="A119" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>555</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="2" t="s">
         <v>557</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -4453,13 +4453,13 @@
       <c r="A120" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>560</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="2" t="s">
         <v>562</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -4470,13 +4470,13 @@
       <c r="A121" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>565</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>567</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -4487,13 +4487,13 @@
       <c r="A122" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>565</v>
+      <c r="B122" s="1" t="s">
+        <v>570</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="D122" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>571</v>
       </c>
       <c r="E122" s="1" t="s">
@@ -4504,13 +4504,13 @@
       <c r="A123" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>574</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="2" t="s">
         <v>576</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -4521,13 +4521,13 @@
       <c r="A124" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>579</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="2" t="s">
         <v>581</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -4538,13 +4538,13 @@
       <c r="A125" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>584</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>586</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -4555,13 +4555,13 @@
       <c r="A126" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>589</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>591</v>
       </c>
       <c r="E126" s="1" t="s">
@@ -4572,13 +4572,13 @@
       <c r="A127" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>594</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>596</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -4606,13 +4606,13 @@
       <c r="A129" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>604</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="2" t="s">
         <v>606</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -4623,13 +4623,13 @@
       <c r="A130" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>609</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="2" t="s">
         <v>611</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -4640,13 +4640,13 @@
       <c r="A131" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>614</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>616</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -4657,13 +4657,13 @@
       <c r="A132" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>619</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="2" t="s">
         <v>621</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -4674,14 +4674,14 @@
       <c r="A133" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="1" t="s">
         <v>624</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D133" s="1" t="s">
         <v>625</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>626</v>
@@ -4691,13 +4691,13 @@
       <c r="A134" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="1" t="s">
         <v>628</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>630</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -4708,13 +4708,13 @@
       <c r="A135" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="1" t="s">
         <v>633</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="2" t="s">
         <v>635</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -4725,13 +4725,13 @@
       <c r="A136" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="1" t="s">
         <v>638</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="2" t="s">
         <v>640</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -4742,13 +4742,13 @@
       <c r="A137" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="1" t="s">
         <v>643</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="2" t="s">
         <v>645</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -4759,13 +4759,13 @@
       <c r="A138" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="1" t="s">
         <v>648</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="2" t="s">
         <v>650</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -4776,13 +4776,13 @@
       <c r="A139" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="1" t="s">
         <v>653</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="2" t="s">
         <v>655</v>
       </c>
       <c r="E139" s="1" t="s">
@@ -4793,13 +4793,13 @@
       <c r="A140" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>653</v>
+      <c r="B140" s="1" t="s">
+        <v>658</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D140" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>659</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -4810,13 +4810,13 @@
       <c r="A141" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>662</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="2" t="s">
         <v>664</v>
       </c>
       <c r="E141" s="1" t="s">
@@ -4827,13 +4827,13 @@
       <c r="A142" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>662</v>
+      <c r="B142" s="1" t="s">
+        <v>667</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="D142" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>668</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -4844,14 +4844,14 @@
       <c r="A143" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="1" t="s">
         <v>671</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="D143" s="1" t="s">
         <v>672</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>673</v>
@@ -4861,13 +4861,13 @@
       <c r="A144" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="1" t="s">
         <v>675</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="2" t="s">
         <v>677</v>
       </c>
       <c r="E144" s="1" t="s">
@@ -4878,13 +4878,13 @@
       <c r="A145" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="3" t="s">
         <v>680</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="2" t="s">
         <v>682</v>
       </c>
       <c r="E145" s="1" t="s">
@@ -4895,13 +4895,13 @@
       <c r="A146" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>525</v>
+      <c r="B146" s="1" t="s">
+        <v>685</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="D146" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>686</v>
       </c>
       <c r="E146" s="3" t="s">
@@ -4912,13 +4912,13 @@
       <c r="A147" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>261</v>
+      <c r="B147" s="1" t="s">
+        <v>689</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="D147" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>690</v>
       </c>
       <c r="E147" s="1" t="s">
@@ -4929,13 +4929,13 @@
       <c r="A148" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>693</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="2" t="s">
         <v>695</v>
       </c>
       <c r="E148" s="1" t="s">
@@ -4946,13 +4946,13 @@
       <c r="A149" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="1" t="s">
         <v>698</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="2" t="s">
         <v>700</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -4963,13 +4963,13 @@
       <c r="A150" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="1" t="s">
         <v>703</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="2" t="s">
         <v>705</v>
       </c>
       <c r="E150" s="1" t="s">
@@ -4980,13 +4980,13 @@
       <c r="A151" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="1" t="s">
         <v>708</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="2" t="s">
         <v>710</v>
       </c>
       <c r="E151" s="1" t="s">
@@ -4997,14 +4997,14 @@
       <c r="A152" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="1" t="s">
         <v>713</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D152" s="1" t="s">
         <v>714</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>715</v>
